--- a/src/analysis/result.xlsx
+++ b/src/analysis/result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obr" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pv1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pid" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obxs" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="msh" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="obr" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pv1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="pid" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="obxs" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="msh" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -49,15 +49,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -471,7 +471,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -514,7 +514,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -567,7 +567,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -15344,7 +15344,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -15487,7 +15487,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -15505,6 +15505,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>